--- a/Retrospective Liver Transplant Data.xlsx
+++ b/Retrospective Liver Transplant Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20389"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanyganruixuan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Retro PLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FE72A4-AC92-634F-A7A5-829952EFCA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22F71DD-A894-4BE8-8723-9F23AD4FC544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="84" sheetId="3" r:id="rId1"/>
@@ -6429,7 +6429,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7350,11 +7350,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DED2A7B-E1B2-BC4C-B317-080C71C9D947}">
   <dimension ref="A1:AP52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="108" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -7394,7 +7394,7 @@
     <col min="39" max="39" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7405,7 +7405,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -7434,12 +7434,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -7447,7 +7447,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42">
       <c r="P17" s="4"/>
       <c r="AH17" s="33" t="s">
         <v>54</v>
@@ -7607,7 +7607,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" s="5" customFormat="1">
       <c r="A19" s="5">
         <v>0</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" s="5" customFormat="1">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="AO20" s="36"/>
       <c r="AP20" s="36"/>
     </row>
-    <row r="21" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" s="5" customFormat="1">
       <c r="A21" s="5">
         <v>2</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" s="5" customFormat="1">
       <c r="A22" s="5">
         <v>3</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" s="5" customFormat="1">
       <c r="A23" s="5">
         <v>4</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" s="5" customFormat="1">
       <c r="A24" s="5">
         <v>5</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" s="5" customFormat="1">
       <c r="A25" s="5">
         <v>6</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" s="5" customFormat="1">
       <c r="A26" s="5">
         <v>7</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:42" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" s="39" customFormat="1">
       <c r="A27" s="39">
         <v>8</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" s="5" customFormat="1">
       <c r="A28" s="40">
         <v>9</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" s="5" customFormat="1">
       <c r="A29" s="40">
         <v>10</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" s="5" customFormat="1">
       <c r="A30" s="40">
         <v>11</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" s="5" customFormat="1">
       <c r="A31" s="40">
         <v>12</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" s="5" customFormat="1">
       <c r="A32" s="40">
         <v>13</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" s="5" customFormat="1">
       <c r="A33" s="40">
         <v>14</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" s="5" customFormat="1">
       <c r="A34" s="40">
         <v>15</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" s="5" customFormat="1">
       <c r="A35" s="40">
         <v>16</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" s="5" customFormat="1">
       <c r="A36" s="40">
         <v>17</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" s="5" customFormat="1">
       <c r="A37" s="40">
         <v>18</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" s="5" customFormat="1">
       <c r="A38" s="40">
         <v>19</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" s="5" customFormat="1">
       <c r="A39" s="40">
         <v>20</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" s="5" customFormat="1">
       <c r="A40" s="40">
         <v>21</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" s="5" customFormat="1">
       <c r="A41" s="40">
         <v>22</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" s="5" customFormat="1">
       <c r="A42" s="40">
         <v>23</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" s="5" customFormat="1">
       <c r="A43" s="40">
         <v>24</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" s="5" customFormat="1">
       <c r="A44" s="40">
         <v>25</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" s="5" customFormat="1">
       <c r="A45" s="40">
         <v>26</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" s="5" customFormat="1">
       <c r="A46" s="40">
         <v>27</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" s="5" customFormat="1">
       <c r="A47" s="40">
         <v>28</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" s="5" customFormat="1">
       <c r="A48" s="40">
         <v>29</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:38" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" s="37" customFormat="1">
       <c r="A49" s="41">
         <v>30</v>
       </c>
@@ -10640,12 +10640,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38">
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
       <c r="AJ50" s="44"/>
     </row>
-    <row r="51" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -10653,7 +10653,7 @@
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38">
       <c r="AJ52" s="5"/>
     </row>
   </sheetData>
@@ -10673,7 +10673,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -10709,7 +10709,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10720,7 +10720,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -10732,7 +10732,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -10749,12 +10749,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -10762,7 +10762,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -10786,7 +10786,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -10810,7 +10810,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -10822,7 +10822,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -10834,7 +10834,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -10910,7 +10910,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="P17" s="4"/>
       <c r="AH17" s="82" t="s">
         <v>54</v>
@@ -10922,7 +10922,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>0</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>2</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>4</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>5</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>6</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>7</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -14027,7 +14027,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -14063,7 +14063,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14074,7 +14074,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -14086,7 +14086,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -14103,12 +14103,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -14116,7 +14116,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -14128,7 +14128,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -14140,7 +14140,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -14152,7 +14152,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -14174,7 +14174,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -14186,7 +14186,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -14198,7 +14198,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -14262,7 +14262,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="P17" s="4"/>
       <c r="AH17" s="67" t="s">
         <v>54</v>
@@ -14274,7 +14274,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>0</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>2</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>4</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>5</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>6</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>7</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -16512,7 +16512,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -16667,7 +16667,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -16735,7 +16735,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -16791,7 +16791,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -16827,7 +16827,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16838,7 +16838,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -16850,7 +16850,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -16867,12 +16867,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -16880,7 +16880,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -16892,7 +16892,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -16904,7 +16904,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -16916,7 +16916,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -16928,7 +16928,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -16940,7 +16940,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -16952,7 +16952,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -16964,7 +16964,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -16976,7 +16976,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -16991,7 +16991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -17028,7 +17028,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="P17" s="4"/>
       <c r="AH17" s="67" t="s">
         <v>54</v>
@@ -17040,7 +17040,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>0</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>2</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3</v>
       </c>
@@ -17576,7 +17576,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>4</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>5</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>6</v>
       </c>
@@ -17888,7 +17888,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>7</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -19032,7 +19032,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -19344,7 +19344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -19566,7 +19566,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -19866,7 +19866,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -19919,7 +19919,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -19955,7 +19955,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19966,7 +19966,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -19978,7 +19978,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -19995,12 +19995,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -20008,7 +20008,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -20020,7 +20020,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -20032,7 +20032,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -20044,7 +20044,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -20056,7 +20056,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -20068,7 +20068,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -20080,7 +20080,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -20092,7 +20092,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -20104,7 +20104,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -20137,7 +20137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -20156,7 +20156,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="P17" s="4"/>
       <c r="AH17" s="65" t="s">
         <v>54</v>
@@ -20168,7 +20168,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -20282,7 +20282,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>0</v>
       </c>
@@ -20386,7 +20386,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1</v>
       </c>
@@ -20487,7 +20487,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>2</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>4</v>
       </c>
@@ -20790,7 +20790,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>5</v>
       </c>
@@ -20891,7 +20891,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>6</v>
       </c>
@@ -20992,7 +20992,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>7</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -21194,7 +21194,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -21497,7 +21497,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -21598,7 +21598,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -21800,7 +21800,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -21901,7 +21901,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -22002,7 +22002,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -22103,7 +22103,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -22204,7 +22204,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -22507,7 +22507,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -22608,7 +22608,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -22709,7 +22709,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -22792,7 +22792,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -22806,7 +22806,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -22820,7 +22820,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -22834,7 +22834,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -22848,7 +22848,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -22862,7 +22862,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -22884,7 +22884,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -22921,7 +22921,7 @@
     <col min="36" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22932,7 +22932,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -22944,7 +22944,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -22961,12 +22961,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -22974,7 +22974,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -22998,7 +22998,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -23010,7 +23010,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -23022,7 +23022,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -23034,7 +23034,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -23046,7 +23046,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -23058,7 +23058,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -23070,7 +23070,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -23103,7 +23103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -23122,7 +23122,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="P17" s="4"/>
       <c r="AH17" s="42" t="s">
         <v>54</v>
@@ -23134,7 +23134,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>0</v>
       </c>
@@ -23352,7 +23352,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1</v>
       </c>
@@ -23456,7 +23456,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>2</v>
       </c>
@@ -23560,7 +23560,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3</v>
       </c>
@@ -23664,7 +23664,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>4</v>
       </c>
@@ -23768,7 +23768,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>5</v>
       </c>
@@ -23875,7 +23875,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>6</v>
       </c>
@@ -23979,7 +23979,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>7</v>
       </c>
@@ -24083,7 +24083,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -24187,7 +24187,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -24291,7 +24291,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -24499,7 +24499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -24603,7 +24603,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -24707,7 +24707,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -24811,7 +24811,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -24915,7 +24915,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -25019,7 +25019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -25123,7 +25123,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -25227,7 +25227,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -25331,7 +25331,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -25539,7 +25539,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -25643,7 +25643,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -25747,7 +25747,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -25955,7 +25955,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" s="60" customFormat="1">
       <c r="A45" s="57">
         <v>26</v>
       </c>
@@ -26062,7 +26062,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -26166,7 +26166,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -26270,7 +26270,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -26478,7 +26478,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -26500,7 +26500,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -26536,7 +26536,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26547,7 +26547,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -26559,7 +26559,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -26576,12 +26576,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -26589,7 +26589,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -26601,7 +26601,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -26613,7 +26613,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -26625,7 +26625,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -26637,7 +26637,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -26649,7 +26649,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -26661,7 +26661,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -26673,7 +26673,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -26685,7 +26685,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -26700,7 +26700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -26718,7 +26718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -26737,7 +26737,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="P17" s="4"/>
       <c r="AH17" s="42" t="s">
         <v>54</v>
@@ -26749,7 +26749,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -26863,7 +26863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>0</v>
       </c>
@@ -26966,7 +26966,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1</v>
       </c>
@@ -27069,7 +27069,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>2</v>
       </c>
@@ -27172,7 +27172,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3</v>
       </c>
@@ -27275,7 +27275,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>4</v>
       </c>
@@ -27378,7 +27378,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>5</v>
       </c>
@@ -27481,7 +27481,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>6</v>
       </c>
@@ -27584,7 +27584,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>7</v>
       </c>
@@ -27687,7 +27687,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
     </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -27790,7 +27790,7 @@
       <c r="AH27" s="39"/>
       <c r="AI27" s="39"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -27893,7 +27893,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -27996,7 +27996,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -28099,7 +28099,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -28202,7 +28202,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -28305,7 +28305,7 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -28408,7 +28408,7 @@
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -28511,7 +28511,7 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -28614,7 +28614,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -28717,7 +28717,7 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -28820,7 +28820,7 @@
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -28923,7 +28923,7 @@
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -29026,7 +29026,7 @@
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -29129,7 +29129,7 @@
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -29232,7 +29232,7 @@
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -29323,7 +29323,7 @@
       </c>
       <c r="AI42" s="5"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -29370,7 +29370,7 @@
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -29417,7 +29417,7 @@
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -29464,7 +29464,7 @@
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -29511,7 +29511,7 @@
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -29558,7 +29558,7 @@
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -29605,7 +29605,7 @@
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
     </row>
-    <row r="49" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -29652,7 +29652,7 @@
       <c r="AH49" s="37"/>
       <c r="AI49" s="37"/>
     </row>
-    <row r="51" spans="1:35" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -29674,7 +29674,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -29712,7 +29712,7 @@
     <col min="38" max="38" width="88.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29723,7 +29723,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -29735,7 +29735,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -29752,12 +29752,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -29765,7 +29765,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -29777,7 +29777,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -29789,7 +29789,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -29801,7 +29801,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -29813,7 +29813,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -29825,7 +29825,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -29837,7 +29837,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -29849,7 +29849,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -29861,7 +29861,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -29876,7 +29876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -29894,7 +29894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -29913,7 +29913,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="P17" s="4"/>
       <c r="AH17" s="33" t="s">
         <v>54</v>
@@ -29925,7 +29925,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -30039,7 +30039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>0</v>
       </c>
@@ -30155,7 +30155,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1</v>
       </c>
@@ -30259,7 +30259,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>2</v>
       </c>
@@ -30363,7 +30363,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3</v>
       </c>
@@ -30467,7 +30467,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>4</v>
       </c>
@@ -30571,7 +30571,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>5</v>
       </c>
@@ -30675,7 +30675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>6</v>
       </c>
@@ -30779,7 +30779,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>7</v>
       </c>
@@ -30883,7 +30883,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -30987,7 +30987,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -31091,7 +31091,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -31195,7 +31195,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -31299,7 +31299,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -31403,7 +31403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -31507,7 +31507,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -31611,7 +31611,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -31715,7 +31715,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -31819,7 +31819,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -31932,7 +31932,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -32036,7 +32036,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -32126,7 +32126,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -32174,7 +32174,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -32222,7 +32222,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -32270,7 +32270,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -32318,7 +32318,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -32366,7 +32366,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -32414,7 +32414,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -32462,7 +32462,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -32510,7 +32510,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -32558,7 +32558,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -32606,7 +32606,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -32644,7 +32644,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -32662,11 +32662,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF262BB-9DE0-3B43-AED9-040842C6C56C}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -32702,7 +32702,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32713,7 +32713,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -32725,7 +32725,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -32742,12 +32742,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -32755,7 +32755,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -32767,7 +32767,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -32779,7 +32779,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -32791,7 +32791,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -32801,7 +32801,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -32813,7 +32813,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -32825,7 +32825,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -32835,7 +32835,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -32847,7 +32847,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -32862,7 +32862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -32880,7 +32880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -32899,7 +32899,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="P17" s="4"/>
       <c r="AH17" s="108" t="s">
         <v>54</v>
@@ -32911,7 +32911,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -33025,7 +33025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>0</v>
       </c>
@@ -33126,7 +33126,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1</v>
       </c>
@@ -33227,7 +33227,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>2</v>
       </c>
@@ -33328,7 +33328,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3</v>
       </c>
@@ -33429,7 +33429,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>4</v>
       </c>
@@ -33530,7 +33530,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>5</v>
       </c>
@@ -33631,7 +33631,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>6</v>
       </c>
@@ -33735,7 +33735,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>7</v>
       </c>
@@ -33839,7 +33839,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -33940,7 +33940,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -34041,7 +34041,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -34142,7 +34142,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -34243,7 +34243,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -34344,7 +34344,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -34546,7 +34546,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -34647,7 +34647,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -34748,7 +34748,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -34849,7 +34849,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -34950,7 +34950,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -35051,7 +35051,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -35152,7 +35152,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -35253,7 +35253,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -35354,7 +35354,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -35455,7 +35455,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -35556,7 +35556,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -35657,7 +35657,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -35758,7 +35758,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -35859,7 +35859,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -35960,7 +35960,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -35980,7 +35980,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -35997,7 +35997,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -36019,7 +36019,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -36055,7 +36055,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36066,7 +36066,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -36078,7 +36078,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -36095,12 +36095,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -36108,7 +36108,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -36120,7 +36120,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -36144,7 +36144,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -36154,7 +36154,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -36166,7 +36166,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -36178,7 +36178,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -36190,7 +36190,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -36202,7 +36202,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -36217,7 +36217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -36235,7 +36235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -36254,7 +36254,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="P17" s="4"/>
       <c r="AH17" s="104" t="s">
         <v>54</v>
@@ -36266,7 +36266,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -36380,7 +36380,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>0</v>
       </c>
@@ -36481,7 +36481,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1</v>
       </c>
@@ -36582,7 +36582,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>2</v>
       </c>
@@ -36683,7 +36683,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3</v>
       </c>
@@ -36784,7 +36784,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>4</v>
       </c>
@@ -36885,7 +36885,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>5</v>
       </c>
@@ -36986,7 +36986,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>6</v>
       </c>
@@ -37093,7 +37093,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>7</v>
       </c>
@@ -37200,7 +37200,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -37301,7 +37301,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -37402,7 +37402,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -37503,7 +37503,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -37604,7 +37604,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -37705,7 +37705,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -37806,7 +37806,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -37907,7 +37907,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -38011,7 +38011,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -38112,7 +38112,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -38213,7 +38213,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -38314,7 +38314,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -38415,7 +38415,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -38516,7 +38516,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -38617,7 +38617,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -38718,7 +38718,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -38819,7 +38819,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -38920,7 +38920,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -39021,7 +39021,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -39122,7 +39122,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -39223,7 +39223,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -39327,7 +39327,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -39344,7 +39344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -39361,7 +39361,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -39383,7 +39383,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -39419,7 +39419,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39430,7 +39430,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -39442,7 +39442,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -39459,12 +39459,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -39472,7 +39472,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -39484,7 +39484,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -39496,7 +39496,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -39508,7 +39508,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -39518,7 +39518,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -39530,7 +39530,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -39542,7 +39542,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -39554,7 +39554,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -39566,7 +39566,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -39581,7 +39581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -39599,7 +39599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -39618,7 +39618,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="P17" s="4"/>
       <c r="AH17" s="104" t="s">
         <v>54</v>
@@ -39630,7 +39630,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -39744,7 +39744,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19">
         <v>0</v>
       </c>
@@ -39845,7 +39845,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20">
         <v>1</v>
       </c>
@@ -39946,7 +39946,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21">
         <v>2</v>
       </c>
@@ -40047,7 +40047,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22">
         <v>3</v>
       </c>
@@ -40148,7 +40148,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23">
         <v>4</v>
       </c>
@@ -40249,7 +40249,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24">
         <v>5</v>
       </c>
@@ -40350,7 +40350,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25">
         <v>6</v>
       </c>
@@ -40451,7 +40451,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40">
       <c r="A26">
         <v>7</v>
       </c>
@@ -40552,7 +40552,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -40653,7 +40653,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -40757,7 +40757,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -40774,7 +40774,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -40791,7 +40791,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -40808,7 +40808,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -40825,7 +40825,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -40842,7 +40842,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -40862,7 +40862,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -40872,7 +40872,7 @@
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -40882,7 +40882,7 @@
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -40892,7 +40892,7 @@
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -40902,7 +40902,7 @@
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -40912,7 +40912,7 @@
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -40922,7 +40922,7 @@
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -40932,7 +40932,7 @@
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -40942,7 +40942,7 @@
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -40950,7 +40950,7 @@
         <v>42477</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -40958,7 +40958,7 @@
         <v>42478</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -40966,7 +40966,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -40974,7 +40974,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -40982,7 +40982,7 @@
         <v>42481</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -40990,7 +40990,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -40998,7 +40998,7 @@
         <v>42483</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -41020,7 +41020,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -41056,7 +41056,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -41067,7 +41067,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -41079,7 +41079,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -41096,12 +41096,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -41109,7 +41109,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -41121,7 +41121,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -41133,7 +41133,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -41145,7 +41145,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -41155,7 +41155,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -41167,7 +41167,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -41179,7 +41179,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -41191,7 +41191,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -41203,7 +41203,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -41218,7 +41218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -41236,7 +41236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -41255,7 +41255,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="P17" s="4"/>
       <c r="AH17" s="95" t="s">
         <v>54</v>
@@ -41267,7 +41267,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -41381,7 +41381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>0</v>
       </c>
@@ -41482,7 +41482,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1</v>
       </c>
@@ -41586,7 +41586,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>2</v>
       </c>
@@ -41687,7 +41687,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3</v>
       </c>
@@ -41788,7 +41788,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>4</v>
       </c>
@@ -41889,7 +41889,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>5</v>
       </c>
@@ -41990,7 +41990,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>6</v>
       </c>
@@ -42091,7 +42091,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>7</v>
       </c>
@@ -42192,7 +42192,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -42293,7 +42293,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -42394,7 +42394,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -42495,7 +42495,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -42596,7 +42596,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -42697,7 +42697,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -42798,7 +42798,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -42899,7 +42899,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -43000,7 +43000,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -43101,7 +43101,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -43202,7 +43202,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -43303,7 +43303,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -43404,7 +43404,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -43505,7 +43505,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -43606,7 +43606,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -43707,7 +43707,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -43808,7 +43808,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -43909,7 +43909,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -44010,7 +44010,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -44111,7 +44111,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -44212,7 +44212,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -44232,7 +44232,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -44249,7 +44249,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -44266,7 +44266,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -44288,7 +44288,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -44324,7 +44324,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -44335,7 +44335,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -44347,7 +44347,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -44364,12 +44364,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -44377,7 +44377,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -44389,7 +44389,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -44401,7 +44401,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -44413,7 +44413,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -44423,7 +44423,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -44435,7 +44435,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -44447,7 +44447,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -44459,7 +44459,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -44471,7 +44471,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -44486,7 +44486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -44504,7 +44504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -44523,7 +44523,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="P17" s="4"/>
       <c r="AH17" s="95" t="s">
         <v>54</v>
@@ -44535,7 +44535,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -44649,7 +44649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19">
         <v>0</v>
       </c>
@@ -44750,7 +44750,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20">
         <v>1</v>
       </c>
@@ -44851,7 +44851,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21">
         <v>2</v>
       </c>
@@ -44952,7 +44952,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22">
         <v>3</v>
       </c>
@@ -45056,7 +45056,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23">
         <v>4</v>
       </c>
@@ -45160,7 +45160,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24">
         <v>5</v>
       </c>
@@ -45264,7 +45264,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25">
         <v>6</v>
       </c>
@@ -45368,7 +45368,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40">
       <c r="A26">
         <v>7</v>
       </c>
@@ -45469,7 +45469,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -45567,7 +45567,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -45584,7 +45584,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -45601,7 +45601,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -45618,7 +45618,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -45635,7 +45635,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -45652,7 +45652,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -45672,7 +45672,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -45687,7 +45687,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -45702,7 +45702,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -45717,7 +45717,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -45732,7 +45732,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -45747,7 +45747,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -45762,7 +45762,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -45777,7 +45777,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -45792,7 +45792,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -45807,7 +45807,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -45821,7 +45821,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -45829,7 +45829,7 @@
         <v>42584</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -45837,7 +45837,7 @@
         <v>42585</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -45845,7 +45845,7 @@
         <v>42586</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -45853,7 +45853,7 @@
         <v>42587</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -45861,7 +45861,7 @@
         <v>42588</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -45869,7 +45869,7 @@
         <v>42589</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -45891,7 +45891,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -45927,7 +45927,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -45938,7 +45938,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -45950,7 +45950,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -45967,12 +45967,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -45980,7 +45980,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -45992,7 +45992,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -46004,7 +46004,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -46016,7 +46016,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -46026,7 +46026,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -46038,7 +46038,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -46050,7 +46050,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -46062,7 +46062,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -46074,7 +46074,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -46089,7 +46089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -46107,7 +46107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -46126,7 +46126,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="P17" s="4"/>
       <c r="AH17" s="93" t="s">
         <v>54</v>
@@ -46138,7 +46138,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -46252,7 +46252,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>0</v>
       </c>
@@ -46359,7 +46359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1</v>
       </c>
@@ -46460,7 +46460,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>2</v>
       </c>
@@ -46561,7 +46561,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3</v>
       </c>
@@ -46662,7 +46662,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>4</v>
       </c>
@@ -46763,7 +46763,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>5</v>
       </c>
@@ -46864,7 +46864,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>6</v>
       </c>
@@ -46965,7 +46965,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>7</v>
       </c>
@@ -47069,7 +47069,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -47170,7 +47170,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -47271,7 +47271,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -47372,7 +47372,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -47473,7 +47473,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -47574,7 +47574,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -47675,7 +47675,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -47776,7 +47776,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -47877,7 +47877,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -47978,7 +47978,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -48079,7 +48079,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -48180,7 +48180,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -48281,7 +48281,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -48382,7 +48382,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -48483,7 +48483,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -48584,7 +48584,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -48610,7 +48610,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -48627,7 +48627,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -48647,7 +48647,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -48658,7 +48658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -48669,7 +48669,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -48680,7 +48680,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -48691,7 +48691,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -48702,7 +48702,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -48724,7 +48724,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -48760,7 +48760,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -48771,7 +48771,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -48783,7 +48783,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -48800,12 +48800,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -48813,7 +48813,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -48825,7 +48825,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -48837,7 +48837,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -48849,7 +48849,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -48859,7 +48859,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -48871,7 +48871,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -48883,7 +48883,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -48895,7 +48895,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -48907,7 +48907,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -48922,7 +48922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -48940,7 +48940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -48959,7 +48959,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="P17" s="4"/>
       <c r="AH17" s="93" t="s">
         <v>54</v>
@@ -48971,7 +48971,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -49085,7 +49085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19">
         <v>0</v>
       </c>
@@ -49189,7 +49189,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20">
         <v>1</v>
       </c>
@@ -49290,7 +49290,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21">
         <v>2</v>
       </c>
@@ -49391,7 +49391,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22">
         <v>3</v>
       </c>
@@ -49492,7 +49492,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23">
         <v>4</v>
       </c>
@@ -49593,7 +49593,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24">
         <v>5</v>
       </c>
@@ -49694,7 +49694,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25">
         <v>6</v>
       </c>
@@ -49795,7 +49795,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40">
       <c r="A26">
         <v>7</v>
       </c>
@@ -49896,7 +49896,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -49997,7 +49997,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" ht="31">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -50098,7 +50098,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -50199,7 +50199,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -50303,7 +50303,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -50313,7 +50313,7 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -50323,7 +50323,7 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -50333,7 +50333,7 @@
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -50343,7 +50343,7 @@
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -50353,7 +50353,7 @@
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -50363,7 +50363,7 @@
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -50373,7 +50373,7 @@
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -50383,7 +50383,7 @@
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -50393,7 +50393,7 @@
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -50403,7 +50403,7 @@
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -50413,7 +50413,7 @@
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -50423,7 +50423,7 @@
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -50431,7 +50431,7 @@
         <v>42595</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -50439,7 +50439,7 @@
         <v>42596</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -50447,7 +50447,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -50455,7 +50455,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -50463,7 +50463,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -50471,7 +50471,7 @@
         <v>42600</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -50479,7 +50479,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
@@ -50501,7 +50501,7 @@
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
@@ -50537,7 +50537,7 @@
     <col min="35" max="38" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -50548,7 +50548,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -50560,7 +50560,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -50577,12 +50577,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="16" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="30"/>
     </row>
-    <row r="5" spans="1:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -50590,7 +50590,7 @@
       <c r="C5" s="31"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16" thickTop="1">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -50602,7 +50602,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -50614,7 +50614,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -50626,7 +50626,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -50638,7 +50638,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -50650,7 +50650,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -50662,7 +50662,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -50674,7 +50674,7 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="16" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -50686,7 +50686,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="16" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -50701,7 +50701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="16" thickBot="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -50719,7 +50719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16" thickTop="1">
       <c r="O16" s="20" t="s">
         <v>21</v>
       </c>
@@ -50738,7 +50738,7 @@
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="P17" s="4"/>
       <c r="AH17" s="85" t="s">
         <v>54</v>
@@ -50750,7 +50750,7 @@
       <c r="AK17" s="116"/>
       <c r="AL17" s="117"/>
     </row>
-    <row r="18" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
@@ -50864,7 +50864,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>0</v>
       </c>
@@ -50968,7 +50968,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>1</v>
       </c>
@@ -51069,7 +51069,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>2</v>
       </c>
@@ -51170,7 +51170,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3</v>
       </c>
@@ -51271,7 +51271,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>4</v>
       </c>
@@ -51372,7 +51372,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>5</v>
       </c>
@@ -51473,7 +51473,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>6</v>
       </c>
@@ -51574,7 +51574,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>7</v>
       </c>
@@ -51675,7 +51675,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" s="27" customFormat="1">
       <c r="A27" s="27">
         <v>8</v>
       </c>
@@ -51776,7 +51776,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="25">
         <v>9</v>
       </c>
@@ -51877,7 +51877,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="25">
         <v>10</v>
       </c>
@@ -51978,7 +51978,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="25">
         <v>11</v>
       </c>
@@ -52079,7 +52079,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="25">
         <v>12</v>
       </c>
@@ -52180,7 +52180,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="25">
         <v>13</v>
       </c>
@@ -52281,7 +52281,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39">
       <c r="A33" s="25">
         <v>14</v>
       </c>
@@ -52382,7 +52382,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39">
       <c r="A34" s="25">
         <v>15</v>
       </c>
@@ -52402,7 +52402,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39">
       <c r="A35" s="25">
         <v>16</v>
       </c>
@@ -52419,7 +52419,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -52436,7 +52436,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39">
       <c r="A37" s="25">
         <v>18</v>
       </c>
@@ -52453,7 +52453,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39">
       <c r="A38" s="25">
         <v>19</v>
       </c>
@@ -52470,7 +52470,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39">
       <c r="A39" s="25">
         <v>20</v>
       </c>
@@ -52487,7 +52487,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39">
       <c r="A40" s="25">
         <v>21</v>
       </c>
@@ -52507,7 +52507,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39">
       <c r="A41" s="25">
         <v>22</v>
       </c>
@@ -52524,7 +52524,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39">
       <c r="A42" s="25">
         <v>23</v>
       </c>
@@ -52541,7 +52541,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39">
       <c r="A43" s="25">
         <v>24</v>
       </c>
@@ -52558,7 +52558,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39">
       <c r="A44" s="25">
         <v>25</v>
       </c>
@@ -52575,7 +52575,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39">
       <c r="A45" s="25">
         <v>26</v>
       </c>
@@ -52592,7 +52592,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39">
       <c r="A46" s="25">
         <v>27</v>
       </c>
@@ -52609,7 +52609,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39">
       <c r="A47" s="25">
         <v>28</v>
       </c>
@@ -52626,7 +52626,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39">
       <c r="A48" s="25">
         <v>29</v>
       </c>
@@ -52643,7 +52643,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="22" customFormat="1">
       <c r="A49" s="29">
         <v>30</v>
       </c>
@@ -52660,7 +52660,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="77.5">
       <c r="E51" s="17" t="s">
         <v>43</v>
       </c>
